--- a/biology/Histoire de la zoologie et de la botanique/Hialmar_Rendahl/Hialmar_Rendahl.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hialmar_Rendahl/Hialmar_Rendahl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hialmar Rendahl est un zoologiste et un artiste suédois, né le 26 décembre 1891 à Jönköping et mort le 2 mai 1969 à Stockholm.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Étudiant à l’université de Stockholm à partir de 1910, il obtint un baccalauréat (filosofie kandidat) en zoologie, botanique et géographie en 1916 et un doctorat en zoologie en 1924. Il devint professeur au Muséum suédois d'histoire naturelle en 1933.
 Pendant ses études, Hialmar Rendahl travailla comme journaliste indépendant, rédigeant des articles de science populaire, traduisant des livres pour la maison d’édition Nordiska et publiant même des dessins. Il commença à travailler dans la section des vertébrés du Musée suédois d’histoire naturelle en 1912 et débuta le baguage d’oiseaux en 1913.
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">"Några ord om Amurområdets fiskfauna" Fauna och Flora: 265-270 (1919)
 "Om flatfiskarnas släktskapsförhållanden" Fauna och Flora: 193-210 (1919)
